--- a/All_Origins_and_destinations.xlsx
+++ b/All_Origins_and_destinations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonyyang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonyyang/samkjoring2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1D0A14E-9E39-764B-AD46-1D5844F58EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF6F6339-93C2-F343-9337-8CA209DA8962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9880" yWindow="29300" windowWidth="33600" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Large1" sheetId="15" r:id="rId1"/>
@@ -2549,50 +2549,50 @@
       </c>
       <c r="B2" s="2" t="str">
         <f t="shared" ref="B2:B9" ca="1" si="0">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D2" s="3">
         <f ca="1">_xlfn.XLOOKUP(B2,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.354616</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" ref="E2:F17" ca="1" si="1">C2*111.021</f>
-        <v>564.85408707299996</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F2" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G2" s="2" t="str">
         <f t="shared" ref="G2:G8" ca="1" si="2">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H2" s="5">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I2" s="6">
         <f ca="1">_xlfn.XLOOKUP(G2,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J2" s="7">
         <f t="shared" ref="J2:K17" ca="1" si="3">H2*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K2" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M2" s="2" cm="1">
         <f t="array" aca="1" ref="M2" ca="1">_xlfn.XLOOKUP(B2,$R$20:$R$47,_xlfn.XLOOKUP(G2,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="N2" s="2">
         <v>4</v>
@@ -2623,50 +2623,50 @@
       </c>
       <c r="B3" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">_xlfn.XLOOKUP(B3,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3" ca="1" si="4">_xlfn.XLOOKUP(B3,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G3" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3" ca="1" si="5">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I3" s="6">
         <f ca="1">_xlfn.XLOOKUP(G3,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J3" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K3" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M3" s="2" cm="1">
         <f t="array" aca="1" ref="M3" ca="1">_xlfn.XLOOKUP(B3,$R$20:$R$47,_xlfn.XLOOKUP(G3,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="N3" s="2">
         <v>4</v>
@@ -2699,23 +2699,23 @@
       </c>
       <c r="B4" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Kårtveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C4" s="2">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9934529999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D4" s="3">
         <f ca="1">_xlfn.XLOOKUP(B4,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.388651000000003</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>554.37814551299994</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.4084226710002</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2742,7 +2742,7 @@
       </c>
       <c r="M4" s="2" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="N4" s="2">
         <v>4</v>
@@ -2772,50 +2772,50 @@
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C6" ca="1" si="6">_xlfn.XLOOKUP(B5,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ref="D5:D6" ca="1" si="7">_xlfn.XLOOKUP(B5,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" ref="H5:H6" ca="1" si="8">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" ref="I5:I6" ca="1" si="9">_xlfn.XLOOKUP(G5,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="2" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
@@ -2865,30 +2865,30 @@
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="9"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M6" s="2" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
@@ -2918,50 +2918,50 @@
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Spjeld</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C7" s="2">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.0396080000000003</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D7" s="3">
         <f ca="1">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.354616</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>559.50231976800001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6704.5962702030001</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="5">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="6">
         <f ca="1">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M7" s="2" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
@@ -2982,50 +2982,50 @@
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ref="C8:C31" ca="1" si="10">_xlfn.XLOOKUP(B8,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ref="D8:D27" ca="1" si="11">_xlfn.XLOOKUP(B8,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ref="H8:H31" ca="1" si="12">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ref="I8:I27" ca="1" si="13">_xlfn.XLOOKUP(G8,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>87</v>
       </c>
       <c r="M8" s="2" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>42</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
@@ -3046,50 +3046,50 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ref="G9:G31" ca="1" si="14">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -3107,50 +3107,50 @@
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ref="B10:B31" ca="1" si="15">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -3168,50 +3168,50 @@
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -3230,50 +3230,50 @@
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="2" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -3294,50 +3294,50 @@
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="2" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3346,50 +3346,50 @@
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="2" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
@@ -3398,50 +3398,50 @@
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>572.01061175400002</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6700.629822936</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="2" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
@@ -3450,23 +3450,23 @@
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="M16" s="2" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
@@ -3502,23 +3502,23 @@
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.375988</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>566.93628592800007</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.0025637480003</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="M17" s="2" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
@@ -3554,43 +3554,43 @@
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ref="E18:F31" ca="1" si="16">C18*111.021</f>
-        <v>561.31429350899998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" ref="J18:K31" ca="1" si="17">H18*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
@@ -3606,23 +3606,23 @@
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="M19" s="2" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="12" t="s">
@@ -3671,50 +3671,50 @@
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="2" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R20" s="13" t="s">
         <v>25</v>
@@ -3738,50 +3738,50 @@
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Brattholmen</v>
+        <v>Straume</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1522740000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354616</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>572.01061175400002</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.629822936</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="2" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="R21" s="13" t="s">
         <v>27</v>
@@ -3805,50 +3805,50 @@
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knappskog</v>
+        <v>Foldnes</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0559289999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.382877999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="2" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="R22" s="13" t="s">
         <v>40</v>
@@ -3878,50 +3878,50 @@
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bildøyna</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1060850000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.354084999999998</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="2" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="R23" s="13" t="s">
         <v>42</v>
@@ -3951,50 +3951,50 @@
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="2" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="R24" s="13" t="s">
         <v>44</v>
@@ -4025,50 +4025,50 @@
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="2" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="R25" s="13" t="s">
         <v>38</v>
@@ -4095,23 +4095,23 @@
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>60.352223000000002</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="M26" s="2" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="R26" s="13" t="s">
         <v>46</v>
@@ -4235,50 +4235,50 @@
       </c>
       <c r="B28" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" ref="D28:D31" ca="1" si="21">_xlfn.XLOOKUP(B28,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G28" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" ref="I28:I31" ca="1" si="22">_xlfn.XLOOKUP(G28,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J28" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K28" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M28" s="2" cm="1">
         <f t="array" aca="1" ref="M28" ca="1">_xlfn.XLOOKUP(B28,$R$20:$R$47,_xlfn.XLOOKUP(G28,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="R28" s="13" t="s">
         <v>47</v>
@@ -4305,23 +4305,23 @@
       </c>
       <c r="B29" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G29" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="M29" s="2" cm="1">
         <f t="array" aca="1" ref="M29" ca="1">_xlfn.XLOOKUP(B29,$R$20:$R$47,_xlfn.XLOOKUP(G29,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="R29" s="13" t="s">
         <v>48</v>
@@ -4375,50 +4375,50 @@
       </c>
       <c r="B30" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Kolltveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.0878129999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>60.352223000000002</v>
+        <v>60.261564</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>564.85408707299996</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.3641496830005</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G30" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H30" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J30" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K30" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M30" s="2" cm="1">
         <f t="array" aca="1" ref="M30" ca="1">_xlfn.XLOOKUP(B30,$R$20:$R$47,_xlfn.XLOOKUP(G30,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="R30" s="13" t="s">
         <v>34</v>
@@ -4445,50 +4445,50 @@
       </c>
       <c r="B31" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" ca="1" si="21"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G31" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H31" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I31" s="6">
         <f t="shared" ca="1" si="22"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J31" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K31" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M31" s="2" cm="1">
         <f t="array" aca="1" ref="M31" ca="1">_xlfn.XLOOKUP(B31,$R$20:$R$47,_xlfn.XLOOKUP(G31,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="R31" s="13" t="s">
         <v>37</v>
@@ -5495,23 +5495,23 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ref="B9:B27" ca="1" si="14">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Kolltveit</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ref="G9:G27" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
@@ -5538,7 +5538,7 @@
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -5556,50 +5556,50 @@
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knarrevik</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1530250000000004</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.368082999999999</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>572.0939885250001</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6702.1249427430002</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -5617,23 +5617,23 @@
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5660,7 +5660,7 @@
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -5679,50 +5679,50 @@
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Kårtveit</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="2" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -5743,50 +5743,50 @@
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Brattholmen</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="2" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5815,30 +5815,30 @@
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="2" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
@@ -5847,50 +5847,50 @@
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Straume</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="2" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
@@ -5899,23 +5899,23 @@
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="M16" s="2" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
@@ -5951,50 +5951,50 @@
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="2" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
@@ -6003,50 +6003,50 @@
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Knappskog</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ref="E18:F27" ca="1" si="16">C18*111.021</f>
-        <v>553.10906446199999</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" ref="J18:K27" ca="1" si="17">H18*111.021</f>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="2" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -6055,50 +6055,50 @@
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="2" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="12" t="s">
@@ -6120,23 +6120,23 @@
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Straume</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
@@ -6163,7 +6163,7 @@
       </c>
       <c r="M20" s="2" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="R20" s="13" t="s">
         <v>25</v>
@@ -6187,50 +6187,50 @@
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Spjeld</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>559.50231976800001</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6704.5962702030001</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="2" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="R21" s="13" t="s">
         <v>27</v>
@@ -6254,50 +6254,50 @@
       </c>
       <c r="B22" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G22" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J22" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K22" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M22" s="2" cm="1">
         <f t="array" aca="1" ref="M22" ca="1">_xlfn.XLOOKUP(B22,$R$20:$R$47,_xlfn.XLOOKUP(G22,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="R22" s="13" t="s">
         <v>40</v>
@@ -6347,30 +6347,30 @@
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="2" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="R23" s="13" t="s">
         <v>42</v>
@@ -6400,50 +6400,50 @@
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="2" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="R24" s="13" t="s">
         <v>44</v>
@@ -6474,50 +6474,50 @@
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Telavåg</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>553.10906446199999</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6690.2990968439999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="2" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="R25" s="13" t="s">
         <v>38</v>
@@ -6564,30 +6564,30 @@
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H26" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J26" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K26" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M26" s="2" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="R26" s="13" t="s">
         <v>46</v>
@@ -6614,50 +6614,50 @@
       </c>
       <c r="B27" s="2" t="str">
         <f t="shared" ca="1" si="14"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" ref="D27" ca="1" si="21">_xlfn.XLOOKUP(B27,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="16"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G27" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" ref="I27" ca="1" si="22">_xlfn.XLOOKUP(G27,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J27" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K27" s="7">
         <f t="shared" ca="1" si="17"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M27" s="2" cm="1">
         <f t="array" aca="1" ref="M27" ca="1">_xlfn.XLOOKUP(B27,$R$20:$R$47,_xlfn.XLOOKUP(G27,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="R27" s="13" t="s">
         <v>39</v>
@@ -7647,50 +7647,50 @@
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ref="B7:B26" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" ref="G7:G26" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="2" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -7708,50 +7708,50 @@
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Spjeld</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="2" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -7769,23 +7769,23 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7812,7 +7812,7 @@
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -7830,50 +7830,50 @@
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -7891,23 +7891,23 @@
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -7934,7 +7934,7 @@
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -7953,50 +7953,50 @@
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="2" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -8017,23 +8017,23 @@
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8060,7 +8060,7 @@
       </c>
       <c r="M13" s="2" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8069,50 +8069,50 @@
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="2" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
@@ -8121,23 +8121,23 @@
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8164,7 +8164,7 @@
       </c>
       <c r="M15" s="2" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
@@ -8173,50 +8173,50 @@
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Foldnes</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1530250000000004</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.368082999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="2" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
@@ -8225,50 +8225,50 @@
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Spjeld</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.382877999999998</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>561.31429350899998</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.7674984380001</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="2" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
@@ -8277,50 +8277,50 @@
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Straume</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0878129999999997</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.352223000000002</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ref="E18:F24" ca="1" si="10">C18*111.021</f>
-        <v>564.85408707299996</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.3641496830005</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" ref="J18:K24" ca="1" si="11">H18*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K18" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M18" s="2" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -8329,50 +8329,50 @@
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="2" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="12" t="s">
@@ -8394,50 +8394,50 @@
       </c>
       <c r="B20" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" ref="D20:D26" ca="1" si="12">_xlfn.XLOOKUP(B20,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G20" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" ref="I20:I26" ca="1" si="13">_xlfn.XLOOKUP(G20,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M20" s="2" cm="1">
         <f t="array" aca="1" ref="M20" ca="1">_xlfn.XLOOKUP(B20,$R$20:$R$47,_xlfn.XLOOKUP(G20,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="R20" s="13" t="s">
         <v>25</v>
@@ -8461,50 +8461,50 @@
       </c>
       <c r="B21" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G21" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J21" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M21" s="2" cm="1">
         <f t="array" aca="1" ref="M21" ca="1">_xlfn.XLOOKUP(B21,$R$20:$R$47,_xlfn.XLOOKUP(G21,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="R21" s="13" t="s">
         <v>27</v>
@@ -8601,50 +8601,50 @@
       </c>
       <c r="B23" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G23" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J23" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K23" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M23" s="2" cm="1">
         <f t="array" aca="1" ref="M23" ca="1">_xlfn.XLOOKUP(B23,$R$20:$R$47,_xlfn.XLOOKUP(G23,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="R23" s="13" t="s">
         <v>42</v>
@@ -8674,50 +8674,50 @@
       </c>
       <c r="B24" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G24" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J24" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K24" s="7">
         <f t="shared" ca="1" si="11"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M24" s="2" cm="1">
         <f t="array" aca="1" ref="M24" ca="1">_xlfn.XLOOKUP(B24,$R$20:$R$47,_xlfn.XLOOKUP(G24,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R24" s="13" t="s">
         <v>44</v>
@@ -8748,50 +8748,50 @@
       </c>
       <c r="B25" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ref="E25:E26" ca="1" si="14">C25*111.021</f>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ref="F25:F26" ca="1" si="15">D25*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G25" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" ref="J25:J26" ca="1" si="16">H25*111.021</f>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K25" s="7">
         <f t="shared" ref="K25:K26" ca="1" si="17">I25*111.021</f>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M25" s="2" cm="1">
         <f t="array" aca="1" ref="M25" ca="1">_xlfn.XLOOKUP(B25,$R$20:$R$47,_xlfn.XLOOKUP(G25,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R25" s="13" t="s">
         <v>38</v>
@@ -8818,23 +8818,23 @@
       </c>
       <c r="B26" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G26" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -8861,7 +8861,7 @@
       </c>
       <c r="M26" s="2" cm="1">
         <f t="array" aca="1" ref="M26" ca="1">_xlfn.XLOOKUP(B26,$R$20:$R$47,_xlfn.XLOOKUP(G26,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="R26" s="13" t="s">
         <v>46</v>
@@ -9879,50 +9879,50 @@
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ref="B7:B19" ca="1" si="8">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" ref="G7:G19" ca="1" si="9">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="2" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -9940,50 +9940,50 @@
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="2" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -10001,50 +10001,50 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -10062,50 +10062,50 @@
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Telavåg</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9820219999999997</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.261564</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>30</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -10123,50 +10123,50 @@
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Spjeld</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -10185,23 +10185,23 @@
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kårtveit</v>
+        <v>Telavåg</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>4.9934529999999997</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.388651000000003</v>
+        <v>60.261564</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10228,7 +10228,7 @@
       </c>
       <c r="M12" s="2" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -10249,50 +10249,50 @@
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Foldnes</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.375988</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="2" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10301,50 +10301,50 @@
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Bildøyna</v>
+        <v>Telavåg</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1060850000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354084999999998</v>
+        <v>60.261564</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="2" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
@@ -10353,50 +10353,50 @@
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.375988</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="2" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
@@ -10405,23 +10405,23 @@
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Brattholmen</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1522740000000002</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>60.354616</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10448,7 +10448,7 @@
       </c>
       <c r="M16" s="2" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
@@ -10457,50 +10457,50 @@
       </c>
       <c r="B17" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1213329999999999</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" ref="D17:D19" ca="1" si="10">_xlfn.XLOOKUP(B17,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ref="E17:E19" ca="1" si="11">C17*111.021</f>
-        <v>568.57551099299997</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ref="F17:F19" ca="1" si="12">D17*111.021</f>
-        <v>6700.8457587809999</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G17" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" ref="I17:I19" ca="1" si="13">_xlfn.XLOOKUP(G17,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" ref="J17:J19" ca="1" si="14">H17*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K17" s="7">
         <f t="shared" ref="K17:K19" ca="1" si="15">I17*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M17" s="2" cm="1">
         <f t="array" aca="1" ref="M17" ca="1">_xlfn.XLOOKUP(B17,$R$20:$R$47,_xlfn.XLOOKUP(G17,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="14" x14ac:dyDescent="0.15">
@@ -10509,23 +10509,23 @@
       </c>
       <c r="B18" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knappskog</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.0559289999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>60.382877999999998</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>561.31429350899998</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.7674984380001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G18" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
@@ -10552,7 +10552,7 @@
       </c>
       <c r="M18" s="2" cm="1">
         <f t="array" aca="1" ref="M18" ca="1">_xlfn.XLOOKUP(B18,$R$20:$R$47,_xlfn.XLOOKUP(G18,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
@@ -10561,50 +10561,50 @@
       </c>
       <c r="B19" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="11"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G19" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="6"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" ca="1" si="13"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J19" s="7">
         <f t="shared" ca="1" si="14"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" ca="1" si="15"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M19" s="2" cm="1">
         <f t="array" aca="1" ref="M19" ca="1">_xlfn.XLOOKUP(B19,$R$20:$R$47,_xlfn.XLOOKUP(G19,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="12" t="s">
@@ -11817,50 +11817,50 @@
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ref="B7:B16" ca="1" si="12">INDEX($W$3:$W$12,RANDBETWEEN(1,ROWS($W$3:$W$12)),1)</f>
-        <v>Straume</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ref="C7:C16" ca="1" si="13">_xlfn.XLOOKUP(B7,$W$3:$W$12,$X$3:$X$12,0)</f>
-        <v>5.1213329999999999</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ref="D7:D13" ca="1" si="14">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" ref="G7:G16" ca="1" si="15">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ref="H7:H16" ca="1" si="16">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AA$3:$AA$6,0)</f>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" ref="I7:I13" ca="1" si="17">_xlfn.XLOOKUP(G7,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="2" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -11878,43 +11878,43 @@
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Bildøyna</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1060850000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354084999999998</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.88266278499998</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.5708707849999</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
@@ -11939,50 +11939,50 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Telavåg</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>60.354616</v>
+        <v>60.261564</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.01061175400002</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.629822936</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -12000,50 +12000,50 @@
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>60.261564</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>553.10906446199999</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6690.2990968439999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -12061,50 +12061,50 @@
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Straume</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1213329999999999</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>60.356560999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -12123,50 +12123,50 @@
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Spjeld</v>
+        <v>Bildøyna</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.0396080000000003</v>
+        <v>5.1060850000000002</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>60.390343000000001</v>
+        <v>60.354084999999998</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>559.50231976800001</v>
+        <v>566.88266278499998</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.5962702030001</v>
+        <v>6700.5708707849999</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Årstad</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3523550000000002</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>60.363500999999999</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M12" s="2" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -12187,50 +12187,50 @@
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Knarrevik</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1530250000000004</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="14"/>
-        <v>60.368082999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" ca="1" si="17"/>
-        <v>60.395409000000001</v>
+        <v>60.290962</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M13" s="2" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -12239,50 +12239,50 @@
       </c>
       <c r="B14" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Brattholmen</v>
+        <v>Kolltveit</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1522740000000002</v>
+        <v>5.0878129999999997</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" ref="D14:D16" ca="1" si="18">_xlfn.XLOOKUP(B14,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354616</v>
+        <v>60.352223000000002</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ref="E14:E16" ca="1" si="19">C14*111.021</f>
-        <v>572.01061175400002</v>
+        <v>564.85408707299996</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ref="F14:F16" ca="1" si="20">D14*111.021</f>
-        <v>6700.629822936</v>
+        <v>6700.3641496830005</v>
       </c>
       <c r="G14" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" ref="I14:I16" ca="1" si="21">_xlfn.XLOOKUP(G14,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" ref="J14:J16" ca="1" si="22">H14*111.021</f>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" ref="K14:K16" ca="1" si="23">I14*111.021</f>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="2" cm="1">
         <f t="array" aca="1" ref="M14" ca="1">_xlfn.XLOOKUP(B14,$R$20:$R$47,_xlfn.XLOOKUP(G14,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="14" x14ac:dyDescent="0.15">
@@ -12291,50 +12291,50 @@
       </c>
       <c r="B15" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Telavåg</v>
+        <v>Spjeld</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>4.9820219999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>60.261564</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>553.10906446199999</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>6690.2990968439999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G15" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M15" s="2" cm="1">
         <f t="array" aca="1" ref="M15" ca="1">_xlfn.XLOOKUP(B15,$R$20:$R$47,_xlfn.XLOOKUP(G15,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>94</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="14" x14ac:dyDescent="0.15">
@@ -12343,50 +12343,50 @@
       </c>
       <c r="B16" s="2" t="str">
         <f t="shared" ca="1" si="12"/>
-        <v>Foldnes</v>
+        <v>Knappskog</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>5.1065680000000002</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ca="1" si="18"/>
-        <v>60.375988</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="19"/>
-        <v>566.93628592800007</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="20"/>
-        <v>6703.0025637480003</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G16" s="2" t="str">
         <f t="shared" ca="1" si="15"/>
-        <v>Ytrebygda</v>
+        <v>Årstad</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="16"/>
-        <v>5.2586760000000004</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" ca="1" si="21"/>
-        <v>60.290962</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" ca="1" si="22"/>
-        <v>583.82346819600002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K16" s="7">
         <f t="shared" ca="1" si="23"/>
-        <v>6693.5628922020005</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M16" s="2" cm="1">
         <f t="array" aca="1" ref="M16" ca="1">_xlfn.XLOOKUP(B16,$R$20:$R$47,_xlfn.XLOOKUP(G16,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="14" x14ac:dyDescent="0.15">
@@ -13557,50 +13557,50 @@
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Telavåg</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.368082999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M6" s="2" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -13627,50 +13627,50 @@
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Spjeld</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ref="D7:D11" ca="1" si="12">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.356560999999999</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M7" s="2" cm="1">
         <f t="array" aca="1" ref="M7" ca="1">_xlfn.XLOOKUP(B7,$R$20:$R$47,_xlfn.XLOOKUP(G7,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="W7" s="2" t="s">
         <v>34</v>
@@ -13688,50 +13688,50 @@
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Knarrevik</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1530250000000004</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.368082999999999</v>
+        <v>60.354616</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>572.0939885250001</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6702.1249427430002</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Ytrebygda</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.290962</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M8" s="2" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -13749,50 +13749,50 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Straume</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -13810,50 +13810,50 @@
       </c>
       <c r="B10" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Foldnes</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.356560999999999</v>
+        <v>60.375988</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>568.57551099299997</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.8457587809999</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -13871,50 +13871,50 @@
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Foldnes</v>
+        <v>Telavåg</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1065680000000002</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>60.375988</v>
+        <v>60.261564</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>566.93628592800007</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6703.0025637480003</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -13933,23 +13933,23 @@
       </c>
       <c r="B12" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" ref="D12:D13" ca="1" si="13">_xlfn.XLOOKUP(B12,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ref="E12:E13" ca="1" si="14">C12*111.021</f>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ref="F12:F13" ca="1" si="15">D12*111.021</f>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G12" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -13976,7 +13976,7 @@
       </c>
       <c r="M12" s="2" cm="1">
         <f t="array" aca="1" ref="M12" ca="1">_xlfn.XLOOKUP(B12,$R$20:$R$47,_xlfn.XLOOKUP(G12,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="R12" s="8"/>
       <c r="S12" s="8"/>
@@ -13997,23 +13997,23 @@
       </c>
       <c r="B13" s="2" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="14"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="15"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G13" s="2" t="str">
         <f t="shared" ca="1" si="10"/>
@@ -14040,7 +14040,7 @@
       </c>
       <c r="M13" s="2" cm="1">
         <f t="array" aca="1" ref="M13" ca="1">_xlfn.XLOOKUP(B13,$R$20:$R$47,_xlfn.XLOOKUP(G13,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15110,30 +15110,30 @@
       </c>
       <c r="G4" s="2" t="str">
         <f t="shared" ref="G4:G11" ca="1" si="6">INDEX($Z$3:$Z$6,RANDBETWEEN(1,ROWS($Z$3:$Z$6)),1)</f>
-        <v>Ytrebygda</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2586760000000004</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4:I6" ca="1" si="7">_xlfn.XLOOKUP(G4,$Z$3:$Z$6,$AB$3:$AB$6,0)</f>
-        <v>60.290962</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J4" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>583.82346819600002</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K4" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6693.5628922020005</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="M4" s="2" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">_xlfn.XLOOKUP(B4,$R$20:$R$47,_xlfn.XLOOKUP(G4,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="W4" s="2" t="s">
         <v>27</v>
@@ -15160,23 +15160,23 @@
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kårtveit</v>
+        <v>Spjeld</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4.9934529999999997</v>
+        <v>5.0396080000000003</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.388651000000003</v>
+        <v>60.390343000000001</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>554.37814551299994</v>
+        <v>559.50231976800001</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6704.4084226710002</v>
+        <v>6704.5962702030001</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15203,7 +15203,7 @@
       </c>
       <c r="M5" s="2" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -15230,50 +15230,50 @@
       </c>
       <c r="B6" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Kolltveit</v>
+        <v>Foldnes</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0878129999999997</v>
+        <v>5.1065680000000002</v>
       </c>
       <c r="D6" s="3">
         <f ca="1">_xlfn.XLOOKUP(B6,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.352223000000002</v>
+        <v>60.375988</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>564.85408707299996</v>
+        <v>566.93628592800007</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>6700.3641496830005</v>
+        <v>6703.0025637480003</v>
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Ytrebygda</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.2586760000000004</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="7"/>
-        <v>60.379098999999997</v>
+        <v>60.290962</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>584.50258365299999</v>
+        <v>583.82346819600002</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" ca="1" si="1"/>
-        <v>6703.3479500789999</v>
+        <v>6693.5628922020005</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="2" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
@@ -15300,23 +15300,23 @@
       </c>
       <c r="B7" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Bildøyna</v>
+        <v>Straume</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1060850000000002</v>
+        <v>5.1213329999999999</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ref="D7:D11" ca="1" si="8">_xlfn.XLOOKUP(B7,$W$3:$W$12,$Y$3:$Y$12,0)</f>
-        <v>60.354084999999998</v>
+        <v>60.356560999999999</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ref="E7:E11" ca="1" si="9">C7*111.021</f>
-        <v>566.88266278499998</v>
+        <v>568.57551099299997</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ref="F7:F11" ca="1" si="10">D7*111.021</f>
-        <v>6700.5708707849999</v>
+        <v>6700.8457587809999</v>
       </c>
       <c r="G7" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -15361,50 +15361,50 @@
       </c>
       <c r="B8" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Straume</v>
+        <v>Knappskog</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1213329999999999</v>
+        <v>5.0559289999999999</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>60.356560999999999</v>
+        <v>60.382877999999998</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>568.57551099299997</v>
+        <v>561.31429350899998</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6700.8457587809999</v>
+        <v>6703.7674984380001</v>
       </c>
       <c r="G8" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>88</v>
       </c>
       <c r="M8" s="2" cm="1">
         <f t="array" aca="1" ref="M8" ca="1">_xlfn.XLOOKUP(B8,$R$20:$R$47,_xlfn.XLOOKUP(G8,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="W8" s="2" t="s">
         <v>35</v>
@@ -15422,50 +15422,50 @@
       </c>
       <c r="B9" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Foldnes</v>
+        <v>Brattholmen</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1065680000000002</v>
+        <v>5.1522740000000002</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>60.375988</v>
+        <v>60.354616</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>566.93628592800007</v>
+        <v>572.01061175400002</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6703.0025637480003</v>
+        <v>6700.629822936</v>
       </c>
       <c r="G9" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Årstad</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>89</v>
       </c>
       <c r="M9" s="2" cm="1">
         <f t="array" aca="1" ref="M9" ca="1">_xlfn.XLOOKUP(B9,$R$20:$R$47,_xlfn.XLOOKUP(G9,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W9" s="2" t="s">
         <v>36</v>
@@ -15503,30 +15503,30 @@
       </c>
       <c r="G10" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Laksevåg</v>
+        <v>Bergenhus</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.2647930000000001</v>
+        <v>5.3261630000000002</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.379098999999997</v>
+        <v>60.395409000000001</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>584.50258365299999</v>
+        <v>591.31594242300002</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>6703.3479500789999</v>
+        <v>6705.1587025890003</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>90</v>
       </c>
       <c r="M10" s="2" cm="1">
         <f t="array" aca="1" ref="M10" ca="1">_xlfn.XLOOKUP(B10,$R$20:$R$47,_xlfn.XLOOKUP(G10,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="W10" s="2" t="s">
         <v>37</v>
@@ -15544,50 +15544,50 @@
       </c>
       <c r="B11" s="2" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Knarrevik</v>
+        <v>Kårtveit</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.1530250000000004</v>
+        <v>4.9934529999999997</v>
       </c>
       <c r="D11" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>60.368082999999999</v>
+        <v>60.388651000000003</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="9"/>
-        <v>572.0939885250001</v>
+        <v>554.37814551299994</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="10"/>
-        <v>6702.1249427430002</v>
+        <v>6704.4084226710002</v>
       </c>
       <c r="G11" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Bergenhus</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3261630000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" ca="1" si="11"/>
-        <v>60.395409000000001</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" ca="1" si="12"/>
-        <v>591.31594242300002</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>6705.1587025890003</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="M11" s="2" cm="1">
         <f t="array" aca="1" ref="M11" ca="1">_xlfn.XLOOKUP(B11,$R$20:$R$47,_xlfn.XLOOKUP(G11,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="8"/>
       <c r="W11" s="2" t="s">
@@ -16742,50 +16742,50 @@
       </c>
       <c r="B5" s="2" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Straume</v>
+        <v>Telavåg</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>5.1213329999999999</v>
+        <v>4.9820219999999997</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>60.356560999999999</v>
+        <v>60.261564</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ref="E5:F5" ca="1" si="12">C5*111.021</f>
-        <v>568.57551099299997</v>
+        <v>553.10906446199999</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="12"/>
-        <v>6700.8457587809999</v>
+        <v>6690.2990968439999</v>
       </c>
       <c r="G5" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Årstad</v>
+        <v>Laksevåg</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3523550000000002</v>
+        <v>5.2647930000000001</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>60.363500999999999</v>
+        <v>60.379098999999997</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" ref="J5:K5" ca="1" si="13">H5*111.021</f>
-        <v>594.22380445500005</v>
+        <v>584.50258365299999</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" ca="1" si="13"/>
-        <v>6701.6162445210002</v>
+        <v>6703.3479500789999</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="2" cm="1">
         <f t="array" aca="1" ref="M5" ca="1">_xlfn.XLOOKUP(B5,$R$20:$R$47,_xlfn.XLOOKUP(G5,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="W5" s="2" t="s">
         <v>15</v>
@@ -16832,30 +16832,30 @@
       </c>
       <c r="G6" s="2" t="str">
         <f t="shared" ca="1" si="9"/>
-        <v>Bergenhus</v>
+        <v>Årstad</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>5.3261630000000002</v>
+        <v>5.3523550000000002</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" ca="1" si="10"/>
-        <v>60.395409000000001</v>
+        <v>60.363500999999999</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" ref="J6:K6" ca="1" si="15">H6*111.021</f>
-        <v>591.31594242300002</v>
+        <v>594.22380445500005</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" ca="1" si="15"/>
-        <v>6705.1587025890003</v>
+        <v>6701.6162445210002</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>31</v>
       </c>
       <c r="M6" s="2" cm="1">
         <f t="array" aca="1" ref="M6" ca="1">_xlfn.XLOOKUP(B6,$R$20:$R$47,_xlfn.XLOOKUP(G6,$S$19:$V$19,$S$20:$V$47))*2</f>
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W6" s="2" t="s">
         <v>32</v>
